--- a/data/case1/11/V1_14.xlsx
+++ b/data/case1/11/V1_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999998816661606</v>
+        <v>0.99999999087830793</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99779580528535039</v>
+        <v>0.99756297670234428</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.99513400187151069</v>
+        <v>0.98813300226291112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.99905219742168039</v>
+        <v>0.99087626876537505</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.98986033560678366</v>
+        <v>0.98046471930147561</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.9680242995231727</v>
+        <v>0.95575150573932932</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.96470720645584862</v>
+        <v>0.94915399587762206</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.96149559469923296</v>
+        <v>0.94002264629820209</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.95946551901889432</v>
+        <v>0.92827556060755789</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.95838507423817809</v>
+        <v>0.91744631229901363</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.95839718842879718</v>
+        <v>0.91585006977033134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.95867676212311159</v>
+        <v>0.91306997256192268</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.96132685892650938</v>
+        <v>0.90178194849833604</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.96312690104029819</v>
+        <v>0.89761444596385009</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.96630373656827906</v>
+        <v>0.89502289790214362</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.97073595436280602</v>
+        <v>0.89251634920979572</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.96702858433030059</v>
+        <v>0.8888083854817368</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.96591972271958459</v>
+        <v>0.88769948401864807</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99439324136157214</v>
+        <v>0.99650979909830051</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98576020291496946</v>
+        <v>0.98939291788456663</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98390137676398504</v>
+        <v>0.98799445365075411</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98263688188094755</v>
+        <v>0.98672995185174583</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.98810006624068147</v>
+        <v>0.98109851028778117</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.97508004970858431</v>
+        <v>0.96807793174949419</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.96862321246494121</v>
+        <v>0.96162099281671887</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.96519671907852311</v>
+        <v>0.95410700332320175</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.96150258971171121</v>
+        <v>0.95206482650867985</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.94004321565203552</v>
+        <v>0.94392235531391888</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.92477703979896941</v>
+        <v>0.93856912369846557</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.91820780823913539</v>
+        <v>0.93683705276543761</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.91055512722299148</v>
+        <v>0.94191104634934897</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.9088759138876864</v>
+        <v>0.94432540797983866</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.9083559294911645</v>
+        <v>0.94916724469054481</v>
       </c>
     </row>
   </sheetData>
